--- a/ResultadosOrdenação.xlsx
+++ b/ResultadosOrdenação.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
   <si>
     <t>Tamanho da Amostra</t>
   </si>
@@ -22,6 +22,9 @@
   </si>
   <si>
     <t>Número de repetições por experiência</t>
+  </si>
+  <si>
+    <t>shuffled</t>
   </si>
 </sst>
 </file>
@@ -72,9 +75,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="55.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -141,6 +146,414 @@
       </c>
       <c r="C6" t="n">
         <v>90.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.755121951219512E-9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1217870.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1025.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.310679611650486E-9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4425304.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.9972527472527472E-8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>673821.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>364.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.9054794520547944E-8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>560425.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>219.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.927902621722846E-8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>116902.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>534.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.4797460317460318E-7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>106168.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>315.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.27E-7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8004548.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.28E-7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7743657.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.4644464446444643E-9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1280228.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1111.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.01875E-9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>752705.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.7185471406491498E-8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>213730.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1294.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.499238820171265E-8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>131108.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1051.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7.019034482758621E-8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>97044.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>725.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.446654275092937E-7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>126384.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>269.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.8603311258278147E-7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>113490.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>151.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.28E-7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7443698.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.283E-6</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4003823.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.138E-6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2091237.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2048.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.277E-6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1071580.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4096.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.98E-6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>537591.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>8192.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.8388E-5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>269259.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16384.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.6613E-5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>105226.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32768.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.00067E-4</v>
+      </c>
+      <c r="D29" t="n">
+        <v>49107.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="n">
+        <v>65536.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.0612E-4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>23494.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultadosOrdenação.xlsx
+++ b/ResultadosOrdenação.xlsx
@@ -13,18 +13,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="6">
   <si>
-    <t>Tamanho da Amostra</t>
+    <t>Tipo da Amostra</t>
   </si>
   <si>
-    <t>Tempo decorrido por ordenação(Mediana)</t>
+    <t>size da Amostra</t>
+  </si>
+  <si>
+    <t>time decorrido por ordenação(Mediana)</t>
+  </si>
+  <si>
+    <t>Número de experiências</t>
   </si>
   <si>
     <t>Número de repetições por experiência</t>
   </si>
   <si>
-    <t>shuffled</t>
+    <t>Sorted</t>
   </si>
 </sst>
 </file>
@@ -92,329 +98,365 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
         <v>2.0</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.302929422451244E-9</v>
-      </c>
       <c r="C2" t="n">
-        <v>540.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5056122E7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
         <v>4.0</v>
       </c>
-      <c r="B3" t="n">
-        <v>4.624716997078541E-9</v>
-      </c>
       <c r="C3" t="n">
-        <v>211.0</v>
+        <v>3.412085308056872E-8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>285738.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>422.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
         <v>8.0</v>
       </c>
-      <c r="B4" t="n">
-        <v>9.297205836267732E-9</v>
-      </c>
       <c r="C4" t="n">
-        <v>163.0</v>
+        <v>3.452631578947368E-8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>340277.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>380.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
         <v>16.0</v>
       </c>
-      <c r="B5" t="n">
-        <v>1.8479273488996022E-8</v>
-      </c>
       <c r="C5" t="n">
-        <v>115.0</v>
+        <v>4.430769230769231E-8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>509323.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>195.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
         <v>32.0</v>
       </c>
-      <c r="B6" t="n">
-        <v>3.697024430414493E-8</v>
-      </c>
       <c r="C6" t="n">
-        <v>90.0</v>
+        <v>6.736842105263159E-8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>183484.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>361.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.0</v>
+        <v>64.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.755121951219512E-9</v>
+        <v>9.853973509933775E-8</v>
       </c>
       <c r="D7" t="n">
-        <v>1217870.0</v>
+        <v>145190.0</v>
       </c>
       <c r="E7" t="n">
-        <v>1025.0</v>
+        <v>302.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4.0</v>
+        <v>128.0</v>
       </c>
       <c r="C8" t="n">
-        <v>8.310679611650486E-9</v>
+        <v>1.7650224215246639E-7</v>
       </c>
       <c r="D8" t="n">
-        <v>4425304.0</v>
+        <v>107284.0</v>
       </c>
       <c r="E8" t="n">
-        <v>103.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8.0</v>
+        <v>256.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.9972527472527472E-8</v>
+        <v>3.298159509202454E-7</v>
       </c>
       <c r="D9" t="n">
-        <v>673821.0</v>
+        <v>78367.0</v>
       </c>
       <c r="E9" t="n">
-        <v>364.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>16.0</v>
+        <v>512.0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.9054794520547944E-8</v>
+        <v>6.59E-7</v>
       </c>
       <c r="D10" t="n">
-        <v>560425.0</v>
+        <v>62135.0</v>
       </c>
       <c r="E10" t="n">
-        <v>219.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>32.0</v>
+        <v>1024.0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.927902621722846E-8</v>
+        <v>1.3805428571428573E-6</v>
       </c>
       <c r="D11" t="n">
-        <v>116902.0</v>
+        <v>82063.0</v>
       </c>
       <c r="E11" t="n">
-        <v>534.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>64.0</v>
+        <v>2048.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.4797460317460318E-7</v>
+        <v>2.879965517241379E-6</v>
       </c>
       <c r="D12" t="n">
-        <v>106168.0</v>
+        <v>49780.0</v>
       </c>
       <c r="E12" t="n">
-        <v>315.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>128.0</v>
+        <v>4096.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.27E-7</v>
+        <v>5.9884999999999995E-6</v>
       </c>
       <c r="D13" t="n">
-        <v>8004548.0</v>
+        <v>48130.0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>256.0</v>
+        <v>8192.0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.28E-7</v>
+        <v>1.2359875E-5</v>
       </c>
       <c r="D14" t="n">
-        <v>7743657.0</v>
+        <v>39518.0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>2.0</v>
+        <v>16384.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.4644464446444643E-9</v>
+        <v>2.455975E-5</v>
       </c>
       <c r="D15" t="n">
-        <v>1280228.0</v>
+        <v>35193.0</v>
       </c>
       <c r="E15" t="n">
-        <v>1111.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>4.0</v>
+        <v>32768.0</v>
       </c>
       <c r="C16" t="n">
-        <v>8.01875E-9</v>
+        <v>4.4E-5</v>
       </c>
       <c r="D16" t="n">
-        <v>752705.0</v>
+        <v>32272.0</v>
       </c>
       <c r="E16" t="n">
-        <v>800.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>8.0</v>
+        <v>65536.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.7185471406491498E-8</v>
+        <v>6.8159E-5</v>
       </c>
       <c r="D17" t="n">
-        <v>213730.0</v>
+        <v>25505.0</v>
       </c>
       <c r="E17" t="n">
-        <v>1294.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>16.0</v>
+        <v>131072.0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.499238820171265E-8</v>
+        <v>2.12158E-4</v>
       </c>
       <c r="D18" t="n">
-        <v>131108.0</v>
+        <v>8447.0</v>
       </c>
       <c r="E18" t="n">
-        <v>1051.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>32.0</v>
+        <v>262144.0</v>
       </c>
       <c r="C19" t="n">
-        <v>7.019034482758621E-8</v>
+        <v>7.90712E-4</v>
       </c>
       <c r="D19" t="n">
-        <v>97044.0</v>
+        <v>3211.0</v>
       </c>
       <c r="E19" t="n">
-        <v>725.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>64.0</v>
+        <v>524288.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.446654275092937E-7</v>
+        <v>0.001713264</v>
       </c>
       <c r="D20" t="n">
-        <v>126384.0</v>
+        <v>1389.0</v>
       </c>
       <c r="E20" t="n">
-        <v>269.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>128.0</v>
+        <v>1048576.0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.8603311258278147E-7</v>
+        <v>0.003224930500000002</v>
       </c>
       <c r="D21" t="n">
-        <v>113490.0</v>
+        <v>696.0</v>
       </c>
       <c r="E21" t="n">
-        <v>151.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="n">
-        <v>256.0</v>
+        <v>2097152.0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.28E-7</v>
+        <v>0.006785057000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>7443698.0</v>
+        <v>306.0</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -422,16 +464,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="n">
-        <v>512.0</v>
+        <v>4194304.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.283E-6</v>
+        <v>0.0147851425</v>
       </c>
       <c r="D23" t="n">
-        <v>4003823.0</v>
+        <v>128.0</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -439,16 +481,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>1024.0</v>
+        <v>2.0</v>
       </c>
       <c r="C24" t="n">
-        <v>2.138E-6</v>
+        <v>0.0</v>
       </c>
       <c r="D24" t="n">
-        <v>2091237.0</v>
+        <v>9706175.0</v>
       </c>
       <c r="E24" t="n">
         <v>1.0</v>
@@ -456,103 +498,1174 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="n">
-        <v>2048.0</v>
+        <v>4.0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.277E-6</v>
+        <v>3.348837209302326E-8</v>
       </c>
       <c r="D25" t="n">
-        <v>1071580.0</v>
+        <v>306084.0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.0</v>
+        <v>430.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B26" t="n">
-        <v>4096.0</v>
+        <v>8.0</v>
       </c>
       <c r="C26" t="n">
-        <v>8.98E-6</v>
+        <v>3.4191780821917814E-8</v>
       </c>
       <c r="D26" t="n">
-        <v>537591.0</v>
+        <v>345508.0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="n">
-        <v>8192.0</v>
+        <v>16.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.8388E-5</v>
+        <v>4.422764227642276E-8</v>
       </c>
       <c r="D27" t="n">
-        <v>269259.0</v>
+        <v>391767.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.0</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="n">
-        <v>16384.0</v>
+        <v>32.0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.6613E-5</v>
+        <v>6.721003134796239E-8</v>
       </c>
       <c r="D28" t="n">
-        <v>105226.0</v>
+        <v>202916.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="n">
-        <v>32768.0</v>
+        <v>64.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.00067E-4</v>
+        <v>9.7984496124031E-8</v>
       </c>
       <c r="D29" t="n">
-        <v>49107.0</v>
+        <v>164386.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.0</v>
+        <v>258.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.7635555555555556E-7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>102405.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>225.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.337361963190184E-7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>74564.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>163.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6.332526315789474E-7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>68157.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.33758E-6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>60574.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2048.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.8266666666666666E-6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>78391.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4096.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.034214285714286E-6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>46728.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8192.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.2434142857142856E-5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>42981.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16384.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.599975E-5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>33776.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>32768.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.296E-5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>48195.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="n">
         <v>65536.0</v>
       </c>
-      <c r="C30" t="n">
-        <v>2.0612E-4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>23494.0</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="C39" t="n">
+        <v>6.752E-5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>22314.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="n">
+        <v>131072.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.17277E-4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8249.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="n">
+        <v>262144.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7.72473E-4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3261.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="n">
+        <v>524288.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0017030239999999998</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1371.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1048576.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.0032766095000000004</v>
+      </c>
+      <c r="D43" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2097152.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.005917065499999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.5501643E7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.336492890995261E-8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>209661.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>422.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.482058823529412E-8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>335880.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>340.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.455696202531646E-8</v>
+      </c>
+      <c r="D48" t="n">
+        <v>252430.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>395.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>6.710942249240122E-8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>203441.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>329.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.780730897009966E-8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>145770.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>301.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.7600000000000001E-7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>108118.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>220.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.2770481927710843E-7</v>
+      </c>
+      <c r="D52" t="n">
+        <v>77520.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>166.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6.4E-7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>65213.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.3463962264150944E-6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>58424.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2048.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.913103448275862E-6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>48624.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4096.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5.9999166666666675E-6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>55009.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="n">
+        <v>8192.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.2519875E-5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>39038.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>16384.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.447975E-5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>36147.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="n">
+        <v>32768.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.4E-5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>32033.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>65536.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6.688E-5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>26203.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>131072.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.23038E-4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9455.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="n">
+        <v>262144.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>7.29913E-4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3467.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="n">
+        <v>524288.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.001681584</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1487.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1048576.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.00319165</v>
+      </c>
+      <c r="D64" t="n">
+        <v>699.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2097152.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0064783390000000005</v>
+      </c>
+      <c r="D65" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4194304.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.013626432999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8388608.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.026757512</v>
+      </c>
+      <c r="D67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.6777216E7</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.05256943200000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.444444444444444E-8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2290021.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.246376811594203E-8</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1798881.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.5821219911194205E-8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>30024.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4279.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.598537569339385E-8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>32027.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3966.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.5737696335078536E-8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>26636.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3820.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7.140265486725664E-8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>20837.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3164.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.0643816631130065E-7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>15346.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2814.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.904811237928007E-7</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10451.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2278.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.496075303126994E-7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8224.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1567.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>6.790794438927508E-7</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6600.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1007.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1024.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.439695099818512E-6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5633.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>551.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2048.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.1365000000000004E-6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5945.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>242.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4096.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6.600230215827338E-6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4959.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>139.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8192.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.3819525423728813E-5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5523.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="n">
+        <v>16384.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.9064885714285712E-5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4405.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="n">
+        <v>32768.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>5.788394444444444E-5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>4212.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="n">
+        <v>65536.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9.4719E-5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>15023.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="n">
+        <v>131072.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.1322366666666665E-4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3480.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="n">
+        <v>262144.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>8.042325E-4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1940.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="n">
+        <v>524288.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.001666865</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1391.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1048576.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.00326045</v>
+      </c>
+      <c r="D89" t="n">
+        <v>647.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2097152.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.007122814000000002</v>
+      </c>
+      <c r="D90" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4194304.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.01405091</v>
+      </c>
+      <c r="D91" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8388608.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.026217996</v>
+      </c>
+      <c r="D92" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.6777216E7</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.046593487999999995</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E93" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -568,79 +1681,7 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.480218351948851E-9</v>
-      </c>
-      <c r="C2" t="n">
-        <v>241.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.821342976588326E-9</v>
-      </c>
-      <c r="C3" t="n">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.7910524132693804E-8</v>
-      </c>
-      <c r="C4" t="n">
-        <v>104.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7.22796974216334E-8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>159.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.9472250663255142E-7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>54.0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>